--- a/Report.xlsx
+++ b/Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>S.no</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Introduction to API, searched some API video</t>
+  </si>
+  <si>
+    <t>02.01.2018</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>project flow,API documentation</t>
   </si>
 </sst>
 </file>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,6 +728,31 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>S.no</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>project flow,API documentation</t>
+  </si>
+  <si>
+    <t>03.01.2018</t>
+  </si>
+  <si>
+    <t>PHP select,insert,update queries, attend chatbot class</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -739,12 +745,32 @@
         <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>S.no</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>PHP select,insert,update queries, attend chatbot class</t>
+  </si>
+  <si>
+    <t>04.01.2018</t>
+  </si>
+  <si>
+    <t>8.45 to 4.45</t>
+  </si>
+  <si>
+    <t>Searched video for api connection,HTTP API</t>
   </si>
 </sst>
 </file>
@@ -515,7 +524,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,6 +783,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>32</v>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>S.no</t>
   </si>
@@ -53,9 +53,6 @@
     <t>8.30 to 4.45</t>
   </si>
   <si>
-    <t>confirmation of domain and title going to work in Wit.ai</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
@@ -65,54 +62,33 @@
     <t>8.30 to 4.15</t>
   </si>
   <si>
-    <t>wit.ai recipes</t>
-  </si>
-  <si>
     <t>19.12.2017</t>
   </si>
   <si>
     <t>8.30 to 4.30</t>
   </si>
   <si>
-    <t>created a simple bot ,watched video for creating and building a simple bot</t>
-  </si>
-  <si>
     <t>20.12.2017</t>
   </si>
   <si>
-    <t>learned wit.ai pdf and Build a simple bot</t>
-  </si>
-  <si>
     <t>Chatbot-Wit.ai</t>
   </si>
   <si>
     <t>21.12.2017</t>
   </si>
   <si>
-    <t>worked on wit .ai ,created demo bot and learning about recipes</t>
-  </si>
-  <si>
     <t>22.12.2017</t>
   </si>
   <si>
     <t>8.30 to 4.00</t>
   </si>
   <si>
-    <t>worked on wit.ai framework,created a pizza ordering demo bot</t>
-  </si>
-  <si>
     <t>26.12.2017</t>
   </si>
   <si>
-    <t>created a college enquiry demo bot</t>
-  </si>
-  <si>
     <t>27.12.2017</t>
   </si>
   <si>
-    <t>add some enchancement in college enquiry bot</t>
-  </si>
-  <si>
     <t>28.12.2017</t>
   </si>
   <si>
@@ -122,12 +98,6 @@
     <t>02.01.2018</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>project flow,API documentation</t>
-  </si>
-  <si>
     <t>03.01.2018</t>
   </si>
   <si>
@@ -141,6 +111,81 @@
   </si>
   <si>
     <t>Searched video for api connection,HTTP API</t>
+  </si>
+  <si>
+    <t>05.01.2018</t>
+  </si>
+  <si>
+    <t>8.40 to 1.00</t>
+  </si>
+  <si>
+    <t>08.01.2018</t>
+  </si>
+  <si>
+    <t>8.30 to 3.45</t>
+  </si>
+  <si>
+    <t>API,JSON with PHP</t>
+  </si>
+  <si>
+    <t>09.01.2018</t>
+  </si>
+  <si>
+    <t>Add some enchancement in college enquiry bot</t>
+  </si>
+  <si>
+    <t>Created a college enquiry demo bot</t>
+  </si>
+  <si>
+    <t>Worked on wit.ai framework,created a pizza ordering demo bot</t>
+  </si>
+  <si>
+    <t>Worked on wit .ai ,created demo bot and learning about recipes</t>
+  </si>
+  <si>
+    <t>Learned wit.ai pdf and Build a simple bot</t>
+  </si>
+  <si>
+    <t>Created a simple bot ,watched video for creating and building a simple bot</t>
+  </si>
+  <si>
+    <t>Wit.ai recipes</t>
+  </si>
+  <si>
+    <t>Confirmation of domain and title going to work in Wit.ai</t>
+  </si>
+  <si>
+    <t>8.30 to 3.30</t>
+  </si>
+  <si>
+    <t>Flow creation,JSON</t>
+  </si>
+  <si>
+    <t>29.12.2017</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>10.01.2018</t>
+  </si>
+  <si>
+    <t>11.01.2018</t>
+  </si>
+  <si>
+    <t>8.40 to 4.00</t>
+  </si>
+  <si>
+    <t>Api-Get entities,Post entities,deleting entities</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Process flow</t>
+  </si>
+  <si>
+    <t>Project flow,API documentation</t>
   </si>
 </sst>
 </file>
@@ -173,7 +218,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,10 +631,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,16 +645,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,16 +665,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,16 +685,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -651,16 +705,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -671,16 +725,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -691,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -711,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -731,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -751,16 +805,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,16 +822,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -791,22 +842,133 @@
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
